--- a/medicine/Enfance/Chansons_pour_tous_les_temps/Chansons_pour_tous_les_temps.xlsx
+++ b/medicine/Enfance/Chansons_pour_tous_les_temps/Chansons_pour_tous_les_temps.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Chansons pour tous les temps est un album d'Anne Sylvestre paru dans sa maison de production en 1982. Il a été réédité par EPM Musique[1]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chansons pour tous les temps est un album d'Anne Sylvestre paru dans sa maison de production en 1982. Il a été réédité par EPM Musique. 
 </t>
         </is>
       </c>
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -537,7 +551,9 @@
           <t>Titres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Toutes les chansons sont écrites et composées par Anne Sylvestre.
 </t>
@@ -568,7 +584,9 @@
           <t>Production</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Production : Anne Sylvestre
 Illustration de pochette : Pef
@@ -600,9 +618,11 @@
           <t>Réception</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Critique de L'Express : « Retour champêtre. agreste, croquant et vif comme une pomme[2] ».
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Critique de L'Express : « Retour champêtre. agreste, croquant et vif comme une pomme ».
 </t>
         </is>
       </c>
